--- a/Records/Avion1.xlsx
+++ b/Records/Avion1.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -480,38 +480,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5285</v>
+        <v>1622</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>Quemadura</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>V5358002820200</t>
+          <t>V5358092320100</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1622</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Quemadura</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>V5358092320100</t>
+          <t>V5358004520500</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -533,7 +535,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>V5358004520500</t>
+          <t>V5358003620300</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -549,48 +551,6 @@
       <c r="D7" t="inlineStr">
         <is>
           <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>V5358003620300</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>V5358002820300</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1793</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Quemadura</t>
         </is>
       </c>
     </row>
